--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,26 @@
           <t>r_eye.y</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>l_eye_s.x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>l_eye_s.y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>r_eye_s.x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>r_eye_s.y</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,28 +516,40 @@
         <v>432</v>
       </c>
       <c r="D2" t="n">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="E2" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F2" t="n">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="G2" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H2" t="n">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="I2" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J2" t="n">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>260</v>
+        <v>252</v>
+      </c>
+      <c r="L2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>42</v>
+      </c>
+      <c r="O2" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -525,34 +557,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>444</v>
+        <v>1091</v>
       </c>
       <c r="C3" t="n">
-        <v>283</v>
+        <v>776</v>
       </c>
       <c r="D3" t="n">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="E3" t="n">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F3" t="n">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="G3" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H3" t="n">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="I3" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="J3" t="n">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="K3" t="n">
-        <v>261</v>
+        <v>268</v>
+      </c>
+      <c r="L3" t="n">
+        <v>44</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18</v>
+      </c>
+      <c r="N3" t="n">
+        <v>42</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +604,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>158</v>
+        <v>1355</v>
       </c>
       <c r="C4" t="n">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="E4" t="n">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="F4" t="n">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="G4" t="n">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="H4" t="n">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="I4" t="n">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="J4" t="n">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="K4" t="n">
-        <v>259</v>
+        <v>233</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +651,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>514</v>
+        <v>1030</v>
       </c>
       <c r="C5" t="n">
-        <v>323</v>
+        <v>486</v>
       </c>
       <c r="D5" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="E5" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" t="n">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="G5" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H5" t="n">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="I5" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J5" t="n">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="K5" t="n">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="L5" t="n">
+        <v>48</v>
+      </c>
+      <c r="M5" t="n">
+        <v>20</v>
+      </c>
+      <c r="N5" t="n">
+        <v>46</v>
+      </c>
+      <c r="O5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +698,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>668</v>
+        <v>1013</v>
       </c>
       <c r="C6" t="n">
-        <v>297</v>
+        <v>792</v>
       </c>
       <c r="D6" t="n">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E6" t="n">
         <v>253</v>
       </c>
       <c r="F6" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G6" t="n">
         <v>256</v>
       </c>
       <c r="H6" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="I6" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J6" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K6" t="n">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="L6" t="n">
+        <v>40</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18</v>
+      </c>
+      <c r="N6" t="n">
+        <v>42</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -667,28 +747,40 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E7" t="n">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F7" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G7" t="n">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="H7" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I7" t="n">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="J7" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K7" t="n">
-        <v>259</v>
+        <v>230</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38</v>
+      </c>
+      <c r="M7" t="n">
+        <v>18</v>
+      </c>
+      <c r="N7" t="n">
+        <v>38</v>
+      </c>
+      <c r="O7" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -698,28 +790,40 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="E8" t="n">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="F8" t="n">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G8" t="n">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="H8" t="n">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="I8" t="n">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="J8" t="n">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="K8" t="n">
-        <v>231</v>
+        <v>266</v>
+      </c>
+      <c r="L8" t="n">
+        <v>46</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16</v>
+      </c>
+      <c r="N8" t="n">
+        <v>44</v>
+      </c>
+      <c r="O8" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -729,28 +833,40 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="E9" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="F9" t="n">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="G9" t="n">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="H9" t="n">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="I9" t="n">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="J9" t="n">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="K9" t="n">
-        <v>231</v>
+        <v>278</v>
+      </c>
+      <c r="L9" t="n">
+        <v>44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16</v>
+      </c>
+      <c r="N9" t="n">
+        <v>42</v>
+      </c>
+      <c r="O9" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -760,28 +876,40 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E10" t="n">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="F10" t="n">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G10" t="n">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="H10" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="I10" t="n">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="J10" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K10" t="n">
-        <v>233</v>
+        <v>277</v>
+      </c>
+      <c r="L10" t="n">
+        <v>42</v>
+      </c>
+      <c r="M10" t="n">
+        <v>14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>42</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -791,28 +919,40 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E11" t="n">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="F11" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G11" t="n">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="H11" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I11" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="J11" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K11" t="n">
-        <v>266</v>
+        <v>255</v>
+      </c>
+      <c r="L11" t="n">
+        <v>42</v>
+      </c>
+      <c r="M11" t="n">
+        <v>22</v>
+      </c>
+      <c r="N11" t="n">
+        <v>42</v>
+      </c>
+      <c r="O11" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
